--- a/Grades, Backlogs & Estimation Reports/Backlogs/Sprint4_Backlog_Template.xlsx
+++ b/Grades, Backlogs & Estimation Reports/Backlogs/Sprint4_Backlog_Template.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Grades, Backlogs &amp; Estimation Reports/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DDF31C-ECBE-0A48-A36A-E2EF69C3A2E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39280A5-EC8D-264E-B94C-D1224F2AEAE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>User story</t>
   </si>
@@ -40,6 +38,18 @@
   </si>
   <si>
     <t>Reviewers 1</t>
+  </si>
+  <si>
+    <t>Ahmed Elshazly</t>
+  </si>
+  <si>
+    <t>As a user I should be able to naviagte the app through navigation bar</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Ahmed Yehia</t>
   </si>
 </sst>
 </file>
@@ -55,14 +65,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -72,6 +74,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -104,11 +113,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,21 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="A2:F47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="82.5" customWidth="1"/>
-    <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.5" style="3" customWidth="1"/>
+    <col min="3" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,178 +494,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,28 +589,4 @@
 Scrum email:</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Grades, Backlogs & Estimation Reports/Backlogs/Sprint4_Backlog_Template.xlsx
+++ b/Grades, Backlogs & Estimation Reports/Backlogs/Sprint4_Backlog_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Grades, Backlogs &amp; Estimation Reports/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39280A5-EC8D-264E-B94C-D1224F2AEAE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA4D66-EEAB-884E-B987-9AF621C27BF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>User story</t>
   </si>
@@ -43,20 +43,74 @@
     <t>Ahmed Elshazly</t>
   </si>
   <si>
-    <t>As a user I should be able to naviagte the app through navigation bar</t>
-  </si>
-  <si>
-    <t>Khaled</t>
-  </si>
-  <si>
-    <t>Ahmed Yehia</t>
+    <t>Ahmed yehia</t>
+  </si>
+  <si>
+    <t>Mohamed teiby</t>
+  </si>
+  <si>
+    <t>khaled ahmed</t>
+  </si>
+  <si>
+    <t>georges khalil</t>
+  </si>
+  <si>
+    <t>haidy hany</t>
+  </si>
+  <si>
+    <t>farida</t>
+  </si>
+  <si>
+    <t>claudia</t>
+  </si>
+  <si>
+    <t>fatma</t>
+  </si>
+  <si>
+    <t>mayar</t>
+  </si>
+  <si>
+    <t>dareen</t>
+  </si>
+  <si>
+    <t>As a user I should be able to create a project through a (form)</t>
+  </si>
+  <si>
+    <t>As a user I should be able to naviagte the app through (navigation bar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to access about us page </t>
+  </si>
+  <si>
+    <t>As a user I should be able to see slots available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to view the projects available </t>
+  </si>
+  <si>
+    <t>As a user I should be able to get a welcome page when I open the website</t>
+  </si>
+  <si>
+    <t>As a user I should be able to view the project progress bar</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to access the description posted by the partner</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to choose a category for my project</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to enter extra attributes after I choose category</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to define project required skills with a set of attributes (Time, skills, etc…..)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +135,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -111,16 +171,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="82.5" style="3" customWidth="1"/>
     <col min="3" max="5" width="16" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
@@ -476,7 +545,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -497,11 +566,11 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -510,73 +579,220 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
